--- a/raw_data/20200818_saline/20200818_Sensor3_Test_73.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_73.xlsx
@@ -1,840 +1,1256 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA8DCB3-48AF-4707-A559-5F546DA08E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>65356.070749</v>
+        <v>65356.070748999999</v>
       </c>
       <c r="B2" s="1">
-        <v>18.154464</v>
+        <v>18.154464000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1143.810000</v>
+        <v>1143.81</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.302000</v>
+        <v>-261.30200000000002</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>65366.503103</v>
+        <v>65366.503103000003</v>
       </c>
       <c r="G2" s="1">
-        <v>18.157362</v>
+        <v>18.157361999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1166.300000</v>
+        <v>1166.3</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.985000</v>
+        <v>-219.98500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>65376.953846</v>
+        <v>65376.953845999997</v>
       </c>
       <c r="L2" s="1">
-        <v>18.160265</v>
+        <v>18.160264999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.080000</v>
+        <v>1195.08</v>
       </c>
       <c r="N2" s="1">
-        <v>-153.151000</v>
+        <v>-153.15100000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>65387.449653</v>
+        <v>65387.449653000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.163180</v>
+        <v>18.163180000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.360000</v>
+        <v>1203.3599999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-130.486000</v>
+        <v>-130.48599999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>65398.348771</v>
+        <v>65398.348770999997</v>
       </c>
       <c r="V2" s="1">
-        <v>18.166208</v>
+        <v>18.166208000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.860000</v>
+        <v>1210.8599999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-109.290000</v>
+        <v>-109.29</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>65408.877321</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.169133</v>
+        <v>18.169132999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.650000</v>
+        <v>1218.6500000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.882700</v>
+        <v>-91.8827</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>65419.132138</v>
+        <v>65419.132138000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.171981</v>
+        <v>18.171980999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-87.194600</v>
+        <v>-87.194599999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>65429.238590</v>
+        <v>65429.238590000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.174788</v>
+        <v>18.174787999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.445700</v>
+        <v>-90.445700000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>65439.497343</v>
+        <v>65439.497343000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.177638</v>
+        <v>18.177638000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1238.560000</v>
+        <v>1238.56</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.418000</v>
+        <v>-102.41800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>65449.733281</v>
+        <v>65449.733281000001</v>
       </c>
       <c r="AU2" s="1">
         <v>18.180481</v>
       </c>
       <c r="AV2" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.874000</v>
+        <v>-121.874</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>65460.826345</v>
+        <v>65460.826345000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.183563</v>
+        <v>18.183562999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.270000</v>
+        <v>1257.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.493000</v>
+        <v>-139.49299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>65471.758659</v>
+        <v>65471.758658999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>18.186600</v>
+        <v>18.186599999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.220000</v>
+        <v>1298.22</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.817000</v>
+        <v>-221.81700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>65482.836277</v>
+        <v>65482.836277000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>18.189677</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.100000</v>
+        <v>-358.1</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>65493.913927</v>
+        <v>65493.913927000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.192754</v>
+        <v>18.192754000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.040000</v>
+        <v>1486.04</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.600000</v>
+        <v>-578.6</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>65505.061548</v>
+        <v>65505.061547999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.195850</v>
+        <v>18.19585</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.410000</v>
+        <v>1620.41</v>
       </c>
       <c r="BV2" s="1">
-        <v>-826.815000</v>
+        <v>-826.81500000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>65516.186281</v>
+        <v>65516.186281000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.198941</v>
+        <v>18.198941000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.440000</v>
+        <v>1774.44</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1094.150000</v>
+        <v>-1094.1500000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>65527.039772</v>
+        <v>65527.039771999996</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.201955</v>
+        <v>18.201955000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2194.870000</v>
+        <v>2194.87</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1738.950000</v>
+        <v>-1738.95</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>65356.496813</v>
+        <v>65356.496812999998</v>
       </c>
       <c r="B3" s="1">
-        <v>18.154582</v>
+        <v>18.154582000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1143.850000</v>
+        <v>1143.8499999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-260.811000</v>
+        <v>-260.81099999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>65366.871632</v>
+        <v>65366.871632000002</v>
       </c>
       <c r="G3" s="1">
-        <v>18.157464</v>
+        <v>18.157464000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1166.960000</v>
+        <v>1166.96</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.919000</v>
+        <v>-218.91900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>65377.638288</v>
+        <v>65377.638288000002</v>
       </c>
       <c r="L3" s="1">
-        <v>18.160455</v>
+        <v>18.160454999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1194.960000</v>
+        <v>1194.96</v>
       </c>
       <c r="N3" s="1">
-        <v>-152.777000</v>
+        <v>-152.77699999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>65388.149507</v>
+        <v>65388.149507000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.163375</v>
+        <v>18.163374999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.290000</v>
+        <v>1203.29</v>
       </c>
       <c r="S3" s="1">
-        <v>-130.566000</v>
+        <v>-130.566</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>65398.763893</v>
+        <v>65398.763893000003</v>
       </c>
       <c r="V3" s="1">
-        <v>18.166323</v>
+        <v>18.166322999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.870000</v>
+        <v>1210.8699999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-109.303000</v>
+        <v>-109.303</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>65409.226545</v>
+        <v>65409.226544999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.169230</v>
+        <v>18.169229999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1218.660000</v>
+        <v>1218.6600000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.845100</v>
+        <v>-91.845100000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>65419.487242</v>
+        <v>65419.487242000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.172080</v>
+        <v>18.172080000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-87.184500</v>
+        <v>-87.1845</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>65429.626956</v>
@@ -843,255 +1259,255 @@
         <v>18.174896</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.425500</v>
+        <v>-90.4255</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>65439.892158</v>
+        <v>65439.892158000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.177748</v>
+        <v>18.177748000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1238.540000</v>
+        <v>1238.54</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.429000</v>
+        <v>-102.429</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>65450.154881</v>
+        <v>65450.154881000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.180599</v>
+        <v>18.180599000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.895000</v>
+        <v>-121.895</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>65461.239474</v>
+        <v>65461.239474000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>18.183678</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.270000</v>
+        <v>1257.27</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.484000</v>
+        <v>-139.48400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>65472.193123</v>
+        <v>65472.193122999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.186720</v>
+        <v>18.186720000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.797000</v>
+        <v>-221.797</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>65483.217701</v>
+        <v>65483.217701000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>18.189783</v>
+        <v>18.189782999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.073000</v>
+        <v>-358.07299999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>65494.340017</v>
+        <v>65494.340017000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.192872</v>
+        <v>18.192872000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.080000</v>
+        <v>1486.08</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.655000</v>
+        <v>-578.65499999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>65505.496533</v>
+        <v>65505.496532999998</v>
       </c>
       <c r="BT3" s="1">
         <v>18.195971</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.370000</v>
+        <v>1620.37</v>
       </c>
       <c r="BV3" s="1">
-        <v>-826.708000</v>
+        <v>-826.70799999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>65516.659003</v>
+        <v>65516.659003000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.199072</v>
+        <v>18.199072000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.280000</v>
+        <v>1774.28</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1094.250000</v>
+        <v>-1094.25</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>65527.632956</v>
+        <v>65527.632956000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.202120</v>
+        <v>18.202120000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2194.650000</v>
+        <v>2194.65</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1740.770000</v>
+        <v>-1740.77</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>65356.840044</v>
+        <v>65356.840043999997</v>
       </c>
       <c r="B4" s="1">
-        <v>18.154678</v>
+        <v>18.154678000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1143.860000</v>
+        <v>1143.8599999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.195000</v>
+        <v>-261.19499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>65367.532303</v>
       </c>
       <c r="G4" s="1">
-        <v>18.157648</v>
+        <v>18.157647999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1166.000000</v>
+        <v>1166</v>
       </c>
       <c r="I4" s="1">
-        <v>-220.034000</v>
+        <v>-220.03399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>65378.018258</v>
+        <v>65378.018257999996</v>
       </c>
       <c r="L4" s="1">
-        <v>18.160561</v>
+        <v>18.160561000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.280000</v>
+        <v>1195.28</v>
       </c>
       <c r="N4" s="1">
-        <v>-152.822000</v>
+        <v>-152.822</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>65388.534402</v>
+        <v>65388.534401999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.163482</v>
+        <v>18.163481999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.250000</v>
+        <v>1203.25</v>
       </c>
       <c r="S4" s="1">
-        <v>-130.526000</v>
+        <v>-130.52600000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>65399.108644</v>
       </c>
       <c r="V4" s="1">
-        <v>18.166419</v>
+        <v>18.166419000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.090000</v>
+        <v>1211.0899999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-109.243000</v>
+        <v>-109.24299999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>65409.577671</v>
+        <v>65409.577670999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.169327</v>
+        <v>18.169326999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.670000</v>
+        <v>1218.67</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.759200</v>
+        <v>-91.759200000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>65419.830970</v>
+        <v>65419.830970000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.172175</v>
+        <v>18.172174999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-87.328900</v>
+        <v>-87.328900000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>65430.047563</v>
@@ -1100,13 +1516,13 @@
         <v>18.175013</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.500000</v>
+        <v>1230.5</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.448800</v>
+        <v>-90.448800000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>65440.310287</v>
@@ -1115,195 +1531,195 @@
         <v>18.177864</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1238.540000</v>
+        <v>1238.54</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.410000</v>
+        <v>-102.41</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>65450.484722</v>
+        <v>65450.484722000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.180690</v>
+        <v>18.180689999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.920000</v>
+        <v>-121.92</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>65461.599073</v>
+        <v>65461.599072999998</v>
       </c>
       <c r="AZ4" s="1">
         <v>18.183778</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.270000</v>
+        <v>1257.27</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.500000</v>
+        <v>-139.5</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>65472.553747</v>
+        <v>65472.553746999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.186820</v>
+        <v>18.186820000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.260000</v>
+        <v>1298.26</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.796000</v>
+        <v>-221.79599999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>65483.593706</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.189887</v>
+        <v>18.189886999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.106000</v>
+        <v>-358.10599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>65495.152935</v>
+        <v>65495.152934999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.193098</v>
+        <v>18.193097999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.110000</v>
+        <v>1486.11</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.692000</v>
+        <v>-578.69200000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>65505.909671</v>
+        <v>65505.909671000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.196086</v>
+        <v>18.196086000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.470000</v>
+        <v>1620.47</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.757000</v>
+        <v>-826.75699999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>65517.086056</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.199191</v>
+        <v>18.199190999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.160000</v>
+        <v>1774.16</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1094.210000</v>
+        <v>-1094.21</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>65528.163675</v>
+        <v>65528.163675000003</v>
       </c>
       <c r="CD4" s="1">
         <v>18.202268</v>
       </c>
       <c r="CE4" s="1">
-        <v>2195.500000</v>
+        <v>2195.5</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1739.580000</v>
+        <v>-1739.58</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>65357.489804</v>
+        <v>65357.489803999997</v>
       </c>
       <c r="B5" s="1">
-        <v>18.154858</v>
+        <v>18.154858000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1143.820000</v>
+        <v>1143.82</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.912000</v>
+        <v>-260.91199999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>65367.906781</v>
+        <v>65367.906780999998</v>
       </c>
       <c r="G5" s="1">
-        <v>18.157752</v>
+        <v>18.157751999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.910000</v>
+        <v>1165.9100000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.272000</v>
+        <v>-219.27199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>65378.366911</v>
+        <v>65378.366910999997</v>
       </c>
       <c r="L5" s="1">
         <v>18.160657</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.300000</v>
+        <v>1195.3</v>
       </c>
       <c r="N5" s="1">
-        <v>-152.884000</v>
+        <v>-152.88399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>65388.883090</v>
+        <v>65388.883090000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.163579</v>
+        <v>18.163578999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.280000</v>
+        <v>1203.28</v>
       </c>
       <c r="S5" s="1">
-        <v>-130.522000</v>
+        <v>-130.52199999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>65399.452846</v>
@@ -1312,981 +1728,981 @@
         <v>18.166515</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X5" s="1">
-        <v>-109.408000</v>
+        <v>-109.408</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>65410.007701</v>
+        <v>65410.007701000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.169447</v>
+        <v>18.169447000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1218.590000</v>
+        <v>1218.5899999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.826400</v>
+        <v>-91.826400000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>65420.255048</v>
+        <v>65420.255047999999</v>
       </c>
       <c r="AF5" s="1">
         <v>18.172293</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AH5" s="1">
-        <v>-87.184500</v>
+        <v>-87.1845</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>65430.344171</v>
+        <v>65430.344170999997</v>
       </c>
       <c r="AK5" s="1">
         <v>18.175096</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.452800</v>
+        <v>-90.452799999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>65440.611853</v>
+        <v>65440.611853000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.177948</v>
+        <v>18.177948000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1238.550000</v>
+        <v>1238.55</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.438000</v>
+        <v>-102.438</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>65450.848816</v>
+        <v>65450.848815999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.180791</v>
+        <v>18.180790999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.869000</v>
+        <v>-121.869</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>65461.955234</v>
+        <v>65461.955234000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.183876</v>
+        <v>18.183876000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.270000</v>
+        <v>1257.27</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.488000</v>
+        <v>-139.488</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>65472.912324</v>
+        <v>65472.912323999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.186920</v>
+        <v>18.186920000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.280000</v>
+        <v>1298.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.788000</v>
+        <v>-221.78800000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>65484.371433</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.190103</v>
+        <v>18.190103000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.110000</v>
+        <v>-358.11</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>65495.571557</v>
+        <v>65495.571557000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.193214</v>
+        <v>18.193214000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.090000</v>
+        <v>1486.09</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.587000</v>
+        <v>-578.58699999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>65506.347675</v>
+        <v>65506.347674999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.196208</v>
+        <v>18.196207999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.510000</v>
+        <v>1620.51</v>
       </c>
       <c r="BV5" s="1">
-        <v>-826.755000</v>
+        <v>-826.755</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>65517.515560</v>
+        <v>65517.51556</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.199310</v>
+        <v>18.199310000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.320000</v>
+        <v>1774.32</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1094.390000</v>
+        <v>-1094.3900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>65528.991001</v>
+        <v>65528.991001000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.202498</v>
+        <v>18.202497999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2194.250000</v>
+        <v>2194.25</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1740.710000</v>
+        <v>-1740.71</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>65357.863786</v>
+        <v>65357.863786000002</v>
       </c>
       <c r="B6" s="1">
-        <v>18.154962</v>
+        <v>18.154962000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.770000</v>
+        <v>1143.77</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.353000</v>
+        <v>-261.35300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>65368.253494</v>
+        <v>65368.253493999997</v>
       </c>
       <c r="G6" s="1">
-        <v>18.157848</v>
+        <v>18.157848000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1167.040000</v>
+        <v>1167.04</v>
       </c>
       <c r="I6" s="1">
-        <v>-219.129000</v>
+        <v>-219.12899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>65378.711631</v>
+        <v>65378.711630999998</v>
       </c>
       <c r="L6" s="1">
         <v>18.160753</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.260000</v>
+        <v>1195.26</v>
       </c>
       <c r="N6" s="1">
-        <v>-153.055000</v>
+        <v>-153.05500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>65389.232769</v>
+        <v>65389.232769000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.163676</v>
+        <v>18.163675999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.330000</v>
+        <v>1203.33</v>
       </c>
       <c r="S6" s="1">
-        <v>-130.498000</v>
+        <v>-130.49799999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>65399.869341</v>
+        <v>65399.869340999998</v>
       </c>
       <c r="V6" s="1">
-        <v>18.166630</v>
+        <v>18.166630000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.910000</v>
+        <v>1210.9100000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-109.380000</v>
+        <v>-109.38</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>65410.271605</v>
+        <v>65410.271605000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.169520</v>
+        <v>18.169519999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1218.700000</v>
+        <v>1218.7</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.773000</v>
+        <v>-91.772999999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>65420.527848</v>
+        <v>65420.527847999998</v>
       </c>
       <c r="AF6" s="1">
         <v>18.172369</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.250000</v>
+        <v>1223.25</v>
       </c>
       <c r="AH6" s="1">
-        <v>-87.371100</v>
+        <v>-87.371099999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>65430.689386</v>
+        <v>65430.689385999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.175191</v>
+        <v>18.175191000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.436800</v>
+        <v>-90.436800000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>65440.970996</v>
+        <v>65440.970995999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.178047</v>
+        <v>18.178046999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1238.540000</v>
+        <v>1238.54</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>65451.212353</v>
+        <v>65451.212353000003</v>
       </c>
       <c r="AU6" s="1">
         <v>18.180892</v>
       </c>
       <c r="AV6" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.904000</v>
+        <v>-121.904</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>65462.675409</v>
+        <v>65462.675409000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.184077</v>
+        <v>18.184076999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.479000</v>
+        <v>-139.47900000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>65473.635497</v>
+        <v>65473.635497000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.187121</v>
+        <v>18.187121000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.792000</v>
+        <v>-221.792</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>65484.745380</v>
+        <v>65484.74538</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.190207</v>
+        <v>18.190207000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.102000</v>
+        <v>-358.10199999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>65495.972324</v>
+        <v>65495.972324000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.193326</v>
+        <v>18.193325999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.070000</v>
+        <v>1486.07</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.660000</v>
+        <v>-578.66</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>65506.774199</v>
+        <v>65506.774198999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.196326</v>
+        <v>18.196325999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.630000</v>
+        <v>1620.63</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.774000</v>
+        <v>-826.774</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>65518.237238</v>
+        <v>65518.237238000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.199510</v>
+        <v>18.19951</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.280000</v>
+        <v>1774.28</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1094.260000</v>
+        <v>-1094.26</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>65529.224786</v>
+        <v>65529.224785999999</v>
       </c>
       <c r="CD6" s="1">
         <v>18.202562</v>
       </c>
       <c r="CE6" s="1">
-        <v>2194.200000</v>
+        <v>2194.1999999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1741.290000</v>
+        <v>-1741.29</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>65358.206535</v>
+        <v>65358.206534999998</v>
       </c>
       <c r="B7" s="1">
-        <v>18.155057</v>
+        <v>18.155056999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.590000</v>
+        <v>1143.5899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.109000</v>
+        <v>-261.10899999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>65368.596746</v>
+        <v>65368.596746000003</v>
       </c>
       <c r="G7" s="1">
-        <v>18.157944</v>
+        <v>18.157944000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.550000</v>
+        <v>1166.55</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.426000</v>
+        <v>-219.42599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>65379.141662</v>
+        <v>65379.141662000002</v>
       </c>
       <c r="L7" s="1">
-        <v>18.160873</v>
+        <v>18.160872999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.130000</v>
+        <v>1195.1300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-153.087000</v>
+        <v>-153.08699999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>65389.648434</v>
+        <v>65389.648434000002</v>
       </c>
       <c r="Q7" s="1">
         <v>18.163791</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.360000</v>
+        <v>1203.3599999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-130.531000</v>
+        <v>-130.53100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>65400.148723</v>
+        <v>65400.148722999998</v>
       </c>
       <c r="V7" s="1">
         <v>18.166708</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.850000</v>
+        <v>1210.8499999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-109.406000</v>
+        <v>-109.40600000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>65410.616789</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.169616</v>
+        <v>18.169616000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.920600</v>
+        <v>-91.920599999999993</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>65420.869128</v>
+        <v>65420.869127999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.172464</v>
+        <v>18.172464000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.320000</v>
+        <v>1223.32</v>
       </c>
       <c r="AH7" s="1">
-        <v>-87.320300</v>
+        <v>-87.320300000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>65431.040058</v>
+        <v>65431.040057999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.175289</v>
+        <v>18.175288999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.473500</v>
+        <v>-90.473500000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>65441.329566</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.178147</v>
+        <v>18.178146999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1238.550000</v>
+        <v>1238.55</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.402000</v>
+        <v>-102.402</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>65451.941998</v>
+        <v>65451.941998000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.181095</v>
+        <v>18.181094999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.874000</v>
+        <v>-121.874</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>65463.063777</v>
+        <v>65463.063777000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.184184</v>
+        <v>18.184183999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.489000</v>
+        <v>-139.489</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>65473.999569</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.187222</v>
+        <v>18.187221999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.220000</v>
+        <v>1298.22</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.798000</v>
+        <v>-221.798</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>65485.117874</v>
+        <v>65485.117874000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.190311</v>
+        <v>18.190311000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.096000</v>
+        <v>-358.096</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>65496.698996</v>
+        <v>65496.698995999999</v>
       </c>
       <c r="BO7" s="1">
         <v>18.193527</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.120000</v>
+        <v>1486.12</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.666000</v>
+        <v>-578.66600000000005</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>65507.489429</v>
+        <v>65507.489429000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.196525</v>
+        <v>18.196525000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.630000</v>
+        <v>1620.63</v>
       </c>
       <c r="BV7" s="1">
-        <v>-826.633000</v>
+        <v>-826.63300000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>65518.359752</v>
+        <v>65518.359751999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.199544</v>
+        <v>18.199543999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.420000</v>
+        <v>1774.42</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1094.360000</v>
+        <v>-1094.3599999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>65529.742968</v>
+        <v>65529.742967999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.202706</v>
+        <v>18.202705999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2195.890000</v>
+        <v>2195.89</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1739.780000</v>
+        <v>-1739.78</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>65358.639878</v>
+        <v>65358.639878000002</v>
       </c>
       <c r="B8" s="1">
-        <v>18.155178</v>
+        <v>18.155177999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.810000</v>
+        <v>1143.81</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.070000</v>
+        <v>-261.07</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>65369.022781</v>
       </c>
       <c r="G8" s="1">
-        <v>18.158062</v>
+        <v>18.158062000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1166.640000</v>
+        <v>1166.6400000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-219.343000</v>
+        <v>-219.34299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>65379.409503</v>
+        <v>65379.409503000003</v>
       </c>
       <c r="L8" s="1">
         <v>18.160947</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.080000</v>
+        <v>1195.08</v>
       </c>
       <c r="N8" s="1">
-        <v>-153.001000</v>
+        <v>-153.001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>65389.945522</v>
+        <v>65389.945522000002</v>
       </c>
       <c r="Q8" s="1">
         <v>18.163874</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.340000</v>
+        <v>1203.3399999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-130.500000</v>
+        <v>-130.5</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>65400.492979</v>
+        <v>65400.492979000002</v>
       </c>
       <c r="V8" s="1">
-        <v>18.166804</v>
+        <v>18.166803999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.820000</v>
+        <v>1210.82</v>
       </c>
       <c r="X8" s="1">
-        <v>-109.418000</v>
+        <v>-109.41800000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>65410.968346</v>
+        <v>65410.968346000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.169713</v>
+        <v>18.169713000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1218.580000</v>
+        <v>1218.58</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.881800</v>
+        <v>-91.881799999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>65421.215334</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.172560</v>
+        <v>18.172560000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.200000</v>
+        <v>1223.2</v>
       </c>
       <c r="AH8" s="1">
-        <v>-87.172200</v>
+        <v>-87.172200000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>65431.734955</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.175482</v>
+        <v>18.175481999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.445600</v>
+        <v>-90.445599999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>65442.053723</v>
+        <v>65442.053722999997</v>
       </c>
       <c r="AP8" s="1">
         <v>18.178348</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1238.570000</v>
+        <v>1238.57</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.446000</v>
+        <v>-102.446</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>65452.333838</v>
+        <v>65452.333837999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.181204</v>
+        <v>18.181204000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.908000</v>
+        <v>-121.908</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>65463.421410</v>
+        <v>65463.421410000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.184284</v>
+        <v>18.184284000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.270000</v>
+        <v>1257.27</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.482000</v>
+        <v>-139.482</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>65474.362131</v>
+        <v>65474.362131000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.187323</v>
+        <v>18.187322999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.797000</v>
+        <v>-221.797</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>65485.802849</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.190501</v>
+        <v>18.190501000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1369.460000</v>
+        <v>1369.46</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.106000</v>
+        <v>-358.10599999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>65497.209845</v>
+        <v>65497.209844999998</v>
       </c>
       <c r="BO8" s="1">
         <v>18.193669</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.060000</v>
+        <v>1486.06</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.684000</v>
+        <v>-578.68399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>65507.618421</v>
+        <v>65507.618420999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>18.196561</v>
+        <v>18.196560999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.650000</v>
+        <v>1620.65</v>
       </c>
       <c r="BV8" s="1">
-        <v>-826.623000</v>
+        <v>-826.62300000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>65518.808134</v>
+        <v>65518.808133999999</v>
       </c>
       <c r="BY8" s="1">
         <v>18.199669</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.330000</v>
+        <v>1774.33</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1094.150000</v>
+        <v>-1094.1500000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>65530.262285</v>
+        <v>65530.262284999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.202851</v>
+        <v>18.202850999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2195.250000</v>
+        <v>2195.25</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1741.080000</v>
+        <v>-1741.08</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>65358.897945</v>
+        <v>65358.897944999997</v>
       </c>
       <c r="B9" s="1">
-        <v>18.155249</v>
+        <v>18.155249000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.860000</v>
+        <v>1143.8599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.202000</v>
+        <v>-261.202</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>65369.284172</v>
@@ -2295,1493 +2711,1493 @@
         <v>18.158134</v>
       </c>
       <c r="H9" s="1">
-        <v>1166.610000</v>
+        <v>1166.6099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-219.506000</v>
+        <v>-219.506</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>65379.755214</v>
+        <v>65379.755213999997</v>
       </c>
       <c r="L9" s="1">
-        <v>18.161043</v>
+        <v>18.161042999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1194.930000</v>
+        <v>1194.93</v>
       </c>
       <c r="N9" s="1">
-        <v>-152.802000</v>
+        <v>-152.80199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>65390.296688</v>
+        <v>65390.296688000002</v>
       </c>
       <c r="Q9" s="1">
         <v>18.163971</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.280000</v>
+        <v>1203.28</v>
       </c>
       <c r="S9" s="1">
-        <v>-130.551000</v>
+        <v>-130.55099999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>65400.834698</v>
+        <v>65400.834697999999</v>
       </c>
       <c r="V9" s="1">
-        <v>18.166899</v>
+        <v>18.166899000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1211.030000</v>
+        <v>1211.03</v>
       </c>
       <c r="X9" s="1">
-        <v>-109.296000</v>
+        <v>-109.29600000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>65411.663876</v>
+        <v>65411.663875999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.169907</v>
+        <v>18.169906999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.580000</v>
+        <v>1218.58</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.864300</v>
+        <v>-91.8643</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>65421.902759</v>
+        <v>65421.902758999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.172751</v>
+        <v>18.172751000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.290000</v>
+        <v>1223.29</v>
       </c>
       <c r="AH9" s="1">
-        <v>-87.297800</v>
+        <v>-87.297799999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>65432.085128</v>
+        <v>65432.085127999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.175579</v>
+        <v>18.175578999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.447100</v>
+        <v>-90.447100000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>65442.410882</v>
+        <v>65442.410881999996</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.178447</v>
+        <v>18.178446999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1238.560000</v>
+        <v>1238.56</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.421000</v>
+        <v>-102.42100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>65452.695389</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.181304</v>
+        <v>18.181304000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.885000</v>
+        <v>-121.88500000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>65464.087006</v>
+        <v>65464.087006000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>18.184469</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.260000</v>
+        <v>1257.26</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.468000</v>
+        <v>-139.46799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>65475.031233</v>
+        <v>65475.031233000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.187509</v>
+        <v>18.187508999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.230000</v>
+        <v>1298.23</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.809000</v>
+        <v>-221.809</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>65485.914450</v>
+        <v>65485.914449999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.190532</v>
+        <v>18.190532000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.135000</v>
+        <v>-358.13499999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>65497.628498</v>
+        <v>65497.628497999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.193786</v>
+        <v>18.193785999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.080000</v>
+        <v>1486.08</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.602000</v>
+        <v>-578.60199999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>65508.055366</v>
+        <v>65508.055366000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.196682</v>
+        <v>18.196681999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.710000</v>
+        <v>1620.71</v>
       </c>
       <c r="BV9" s="1">
-        <v>-826.594000</v>
+        <v>-826.59400000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>65519.239657</v>
+        <v>65519.239656999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.199789</v>
+        <v>18.199788999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.380000</v>
+        <v>1774.38</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1094.530000</v>
+        <v>-1094.53</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>65530.812327</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.203003</v>
+        <v>18.203002999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2193.910000</v>
+        <v>2193.91</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1741.160000</v>
+        <v>-1741.16</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>65359.241674</v>
+        <v>65359.241673999997</v>
       </c>
       <c r="B10" s="1">
-        <v>18.155345</v>
+        <v>18.155345000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.200000</v>
+        <v>1144.2</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.208000</v>
+        <v>-261.20800000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>65369.639307</v>
+        <v>65369.639306999998</v>
       </c>
       <c r="G10" s="1">
-        <v>18.158233</v>
+        <v>18.158232999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1166.000000</v>
+        <v>1166</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.772000</v>
+        <v>-219.77199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>65380.102449</v>
+        <v>65380.102448999998</v>
       </c>
       <c r="L10" s="1">
-        <v>18.161140</v>
+        <v>18.16114</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.160000</v>
+        <v>1195.1600000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-152.818000</v>
+        <v>-152.81800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>65390.644879</v>
+        <v>65390.644878999999</v>
       </c>
       <c r="Q10" s="1">
         <v>18.164068</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.300000</v>
+        <v>1203.3</v>
       </c>
       <c r="S10" s="1">
-        <v>-130.522000</v>
+        <v>-130.52199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>65401.523633</v>
+        <v>65401.523632999997</v>
       </c>
       <c r="V10" s="1">
-        <v>18.167090</v>
+        <v>18.167090000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.840000</v>
+        <v>1210.8399999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-109.374000</v>
+        <v>-109.374</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>65412.015542</v>
+        <v>65412.015542000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.170004</v>
+        <v>18.170003999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.680000</v>
+        <v>1218.68</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.874500</v>
+        <v>-91.874499999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>65422.241031</v>
+        <v>65422.241030999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.172845</v>
+        <v>18.172844999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.370000</v>
+        <v>1223.3699999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-87.165600</v>
+        <v>-87.165599999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>65432.434344</v>
+        <v>65432.434344000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.175676</v>
+        <v>18.175675999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.448600</v>
+        <v>-90.448599999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>65442.803210</v>
+        <v>65442.803209999998</v>
       </c>
       <c r="AP10" s="1">
         <v>18.178556</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1238.580000</v>
+        <v>1238.58</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.423000</v>
+        <v>-102.423</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>65453.364764</v>
+        <v>65453.364763999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.181490</v>
+        <v>18.18149</v>
       </c>
       <c r="AV10" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.881000</v>
+        <v>-121.881</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>65464.523485</v>
+        <v>65464.523484999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.184590</v>
+        <v>18.18459</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.481000</v>
+        <v>-139.48099999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>65475.471681</v>
+        <v>65475.471681000003</v>
       </c>
       <c r="BE10" s="1">
         <v>18.187631</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.783000</v>
+        <v>-221.78299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>65486.274049</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.190632</v>
+        <v>18.190632000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.123000</v>
+        <v>-358.12299999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>65498.025761</v>
+        <v>65498.025760999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.193896</v>
+        <v>18.193895999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.110000</v>
+        <v>1486.11</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.645000</v>
+        <v>-578.64499999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>65508.484405</v>
+        <v>65508.484405000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.196801</v>
+        <v>18.196801000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.700000</v>
+        <v>1620.7</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.563000</v>
+        <v>-826.56299999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>65519.663734</v>
+        <v>65519.663734000002</v>
       </c>
       <c r="BY10" s="1">
         <v>18.199907</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.280000</v>
+        <v>1774.28</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1094.310000</v>
+        <v>-1094.31</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>65531.345045</v>
+        <v>65531.345045000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.203151</v>
+        <v>18.203150999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2195.990000</v>
+        <v>2195.9899999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1740.290000</v>
+        <v>-1740.29</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>65359.581928</v>
       </c>
       <c r="B11" s="1">
-        <v>18.155439</v>
+        <v>18.155439000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1143.960000</v>
+        <v>1143.96</v>
       </c>
       <c r="D11" s="1">
-        <v>-260.910000</v>
+        <v>-260.91000000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>65369.983036</v>
+        <v>65369.983035999998</v>
       </c>
       <c r="G11" s="1">
-        <v>18.158329</v>
+        <v>18.158328999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.380000</v>
+        <v>1166.3800000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-219.717000</v>
+        <v>-219.71700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>65380.794828</v>
+        <v>65380.794827999998</v>
       </c>
       <c r="L11" s="1">
-        <v>18.161332</v>
+        <v>18.161332000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.160000</v>
+        <v>1195.1600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-153.007000</v>
+        <v>-153.00700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>65391.342752</v>
+        <v>65391.342751999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.164262</v>
+        <v>18.164262000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.250000</v>
+        <v>1203.25</v>
       </c>
       <c r="S11" s="1">
-        <v>-130.471000</v>
+        <v>-130.471</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>65401.864882</v>
+        <v>65401.864882000002</v>
       </c>
       <c r="V11" s="1">
         <v>18.167185</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.990000</v>
+        <v>1210.99</v>
       </c>
       <c r="X11" s="1">
-        <v>-109.208000</v>
+        <v>-109.208</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>65412.363235</v>
+        <v>65412.363234999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.170101</v>
+        <v>18.170100999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.858200</v>
+        <v>-91.858199999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>65422.586741</v>
+        <v>65422.586740999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.172941</v>
+        <v>18.172941000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.320000</v>
+        <v>1223.32</v>
       </c>
       <c r="AH11" s="1">
-        <v>-87.149400</v>
+        <v>-87.1494</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>65433.089063</v>
+        <v>65433.089062999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.175858</v>
+        <v>18.175858000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.416500</v>
+        <v>-90.416499999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>65443.259498</v>
+        <v>65443.259497999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.178683</v>
+        <v>18.178682999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1238.590000</v>
+        <v>1238.5899999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.422000</v>
+        <v>-102.422</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>65453.827261</v>
+        <v>65453.827260999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.181619</v>
+        <v>18.181619000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.880000</v>
+        <v>-121.88</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>65464.888045</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.184691</v>
+        <v>18.184691000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.483000</v>
+        <v>-139.483</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>65475.833263</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.187731</v>
+        <v>18.187730999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.220000</v>
+        <v>1298.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.803000</v>
+        <v>-221.803</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>65486.647536</v>
+        <v>65486.647535999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>18.190735</v>
       </c>
       <c r="BK11" s="1">
-        <v>1369.450000</v>
+        <v>1369.45</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.097000</v>
+        <v>-358.09699999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>65498.450374</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.194014</v>
+        <v>18.194013999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.060000</v>
+        <v>1486.06</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.687000</v>
+        <v>-578.68700000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>65508.907987</v>
+        <v>65508.907986999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.196919</v>
+        <v>18.196919000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.750000</v>
+        <v>1620.75</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.495000</v>
+        <v>-826.495</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>65520.082388</v>
+        <v>65520.082388000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.200023</v>
+        <v>18.200023000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.270000</v>
+        <v>1774.27</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1094.130000</v>
+        <v>-1094.1300000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>65531.863334</v>
+        <v>65531.863334000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.203295</v>
+        <v>18.203295000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2194.730000</v>
+        <v>2194.73</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1738.380000</v>
+        <v>-1738.38</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>65360.264456</v>
+        <v>65360.264455999997</v>
       </c>
       <c r="B12" s="1">
-        <v>18.155629</v>
+        <v>18.155629000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.970000</v>
+        <v>1143.97</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.081000</v>
+        <v>-261.08100000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>65370.671485</v>
+        <v>65370.671484999999</v>
       </c>
       <c r="G12" s="1">
-        <v>18.158520</v>
+        <v>18.158519999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1166.180000</v>
+        <v>1166.18</v>
       </c>
       <c r="I12" s="1">
-        <v>-220.038000</v>
+        <v>-220.03800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>65381.142029</v>
+        <v>65381.142029000002</v>
       </c>
       <c r="L12" s="1">
-        <v>18.161428</v>
+        <v>18.161428000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.300000</v>
+        <v>1195.3</v>
       </c>
       <c r="N12" s="1">
-        <v>-152.824000</v>
+        <v>-152.82400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>65391.689454</v>
+        <v>65391.689453999999</v>
       </c>
       <c r="Q12" s="1">
         <v>18.164358</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.310000</v>
+        <v>1203.31</v>
       </c>
       <c r="S12" s="1">
-        <v>-130.480000</v>
+        <v>-130.47999999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>65402.208608</v>
+        <v>65402.208608000001</v>
       </c>
       <c r="V12" s="1">
-        <v>18.167280</v>
+        <v>18.167280000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.950000</v>
+        <v>1210.95</v>
       </c>
       <c r="X12" s="1">
-        <v>-109.195000</v>
+        <v>-109.19499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>65413.020402</v>
+        <v>65413.020402000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.170283</v>
+        <v>18.170283000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.620000</v>
+        <v>1218.6199999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.860100</v>
+        <v>-91.860100000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>65423.245461</v>
+        <v>65423.245460999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.173124</v>
+        <v>18.173124000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.310000</v>
+        <v>1223.31</v>
       </c>
       <c r="AH12" s="1">
-        <v>-87.367500</v>
+        <v>-87.367500000000007</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>65433.477399</v>
+        <v>65433.477399000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.175966</v>
+        <v>18.175965999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.460600</v>
+        <v>-90.460599999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>65443.489146</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.178747</v>
+        <v>18.178747000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1238.540000</v>
+        <v>1238.54</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.417000</v>
+        <v>-102.417</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>65454.190859</v>
+        <v>65454.190859000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.181720</v>
+        <v>18.181719999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.881000</v>
+        <v>-121.881</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>65465.248140</v>
+        <v>65465.248140000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.184791</v>
+        <v>18.184791000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.470000</v>
+        <v>-139.47</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>65476.193383</v>
+        <v>65476.193382999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.187831</v>
+        <v>18.187830999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.806000</v>
+        <v>-221.80600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>65487.076112</v>
+        <v>65487.076112000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.190854</v>
+        <v>18.190854000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.101000</v>
+        <v>-358.101</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>65498.846642</v>
+        <v>65498.846641999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.194124</v>
+        <v>18.194123999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.120000</v>
+        <v>1486.12</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.676000</v>
+        <v>-578.67600000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>65509.325619</v>
+        <v>65509.325619000003</v>
       </c>
       <c r="BT12" s="1">
         <v>18.197035</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.780000</v>
+        <v>1620.78</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.469000</v>
+        <v>-826.46900000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>65520.507925</v>
+        <v>65520.507924999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.200141</v>
+        <v>18.200140999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.350000</v>
+        <v>1774.35</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1094.450000</v>
+        <v>-1094.45</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>65532.381188</v>
+        <v>65532.381187999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>18.203439</v>
+        <v>18.203438999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>2193.150000</v>
+        <v>2193.15</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1739.710000</v>
+        <v>-1739.71</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>65360.609639</v>
+        <v>65360.609639000002</v>
       </c>
       <c r="B13" s="1">
         <v>18.155725</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.010000</v>
+        <v>1144.01</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.037000</v>
+        <v>-261.03699999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>65371.015705</v>
+        <v>65371.015704999998</v>
       </c>
       <c r="G13" s="1">
-        <v>18.158615</v>
+        <v>18.158615000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1166.430000</v>
+        <v>1166.43</v>
       </c>
       <c r="I13" s="1">
-        <v>-220.116000</v>
+        <v>-220.11600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>65381.486779</v>
+        <v>65381.486778999999</v>
       </c>
       <c r="L13" s="1">
         <v>18.161524</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.250000</v>
+        <v>1195.25</v>
       </c>
       <c r="N13" s="1">
-        <v>-152.943000</v>
+        <v>-152.94300000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>65392.039629</v>
+        <v>65392.039628999999</v>
       </c>
       <c r="Q13" s="1">
         <v>18.164455</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.350000</v>
+        <v>1203.3499999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-130.509000</v>
+        <v>-130.50899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>65402.860383</v>
+        <v>65402.860382999999</v>
       </c>
       <c r="V13" s="1">
-        <v>18.167461</v>
+        <v>18.167460999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.830000</v>
+        <v>1210.83</v>
       </c>
       <c r="X13" s="1">
-        <v>-109.254000</v>
+        <v>-109.254</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>65413.407778</v>
+        <v>65413.407778000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.170391</v>
+        <v>18.170390999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.640000</v>
+        <v>1218.6400000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.851600</v>
+        <v>-91.851600000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>65423.617285</v>
       </c>
       <c r="AF13" s="1">
-        <v>18.173227</v>
+        <v>18.173227000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-87.060400</v>
+        <v>-87.060400000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>65433.827606</v>
+        <v>65433.827605999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.176063</v>
+        <v>18.176062999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.454500</v>
+        <v>-90.454499999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>65443.851721</v>
+        <v>65443.851720999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.178848</v>
+        <v>18.178847999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1238.550000</v>
+        <v>1238.55</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.435000</v>
+        <v>-102.435</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>65454.554396</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.181821</v>
+        <v>18.181820999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.898000</v>
+        <v>-121.898</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>65465.675724</v>
+        <v>65465.675724000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.184910</v>
+        <v>18.184909999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.250000</v>
+        <v>1257.25</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.489000</v>
+        <v>-139.489</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>65476.692864</v>
+        <v>65476.692863999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.187970</v>
+        <v>18.18797</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.802000</v>
+        <v>-221.80199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>65487.409919</v>
+        <v>65487.409918999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.190947</v>
+        <v>18.190947000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.124000</v>
+        <v>-358.12400000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>65499.265299</v>
+        <v>65499.265298999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.194240</v>
+        <v>18.194240000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.090000</v>
+        <v>1486.09</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.627000</v>
+        <v>-578.62699999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>65509.755154</v>
+        <v>65509.755153999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.197154</v>
+        <v>18.197154000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.760000</v>
+        <v>1620.76</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.394000</v>
+        <v>-826.39400000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>65520.923109</v>
+        <v>65520.923109000003</v>
       </c>
       <c r="BY13" s="1">
         <v>18.200256</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.300000</v>
+        <v>1774.3</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1094.390000</v>
+        <v>-1094.3900000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>65532.897987</v>
+        <v>65532.897986999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.203583</v>
+        <v>18.203582999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>2193.370000</v>
+        <v>2193.37</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1739.460000</v>
+        <v>-1739.46</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>65360.949398</v>
+        <v>65360.949397999997</v>
       </c>
       <c r="B14" s="1">
-        <v>18.155819</v>
+        <v>18.155819000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.020000</v>
+        <v>1144.02</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.239000</v>
+        <v>-261.23899999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>65371.360425</v>
+        <v>65371.360424999999</v>
       </c>
       <c r="G14" s="1">
         <v>18.158711</v>
       </c>
       <c r="H14" s="1">
-        <v>1166.520000</v>
+        <v>1166.52</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.628000</v>
+        <v>-219.62799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>65382.145434</v>
+        <v>65382.145433999998</v>
       </c>
       <c r="L14" s="1">
         <v>18.161707</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.290000</v>
+        <v>1195.29</v>
       </c>
       <c r="N14" s="1">
-        <v>-152.818000</v>
+        <v>-152.81800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>65392.736728</v>
+        <v>65392.736728000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.164649</v>
+        <v>18.164649000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.310000</v>
+        <v>1203.31</v>
       </c>
       <c r="S14" s="1">
-        <v>-130.605000</v>
+        <v>-130.60499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>65403.241310</v>
+        <v>65403.241309999998</v>
       </c>
       <c r="V14" s="1">
-        <v>18.167567</v>
+        <v>18.167566999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X14" s="1">
-        <v>-109.264000</v>
+        <v>-109.264</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>65413.757457</v>
       </c>
       <c r="AA14" s="1">
-        <v>18.170488</v>
+        <v>18.170487999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.670000</v>
+        <v>1218.67</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.907000</v>
+        <v>-91.906999999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>65423.960659</v>
+        <v>65423.960658999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.173322</v>
+        <v>18.173321999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.400000</v>
+        <v>1223.4000000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-87.135200</v>
+        <v>-87.135199999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>65434.176262</v>
+        <v>65434.176262000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.176160</v>
+        <v>18.176159999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.550000</v>
+        <v>1230.55</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.433900</v>
+        <v>-90.433899999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>65444.268393</v>
+        <v>65444.268392999998</v>
       </c>
       <c r="AP14" s="1">
         <v>18.178963</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1238.540000</v>
+        <v>1238.54</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.440000</v>
+        <v>-102.44</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>65454.983932</v>
+        <v>65454.983932000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.181940</v>
+        <v>18.181940000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1248.640000</v>
+        <v>1248.6400000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.892000</v>
+        <v>-121.892</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>65465.966349</v>
+        <v>65465.966349000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>18.184991</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.260000</v>
+        <v>1257.26</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.490000</v>
+        <v>-139.49</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>65476.918510</v>
+        <v>65476.918510000003</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.188033</v>
+        <v>18.188033000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.826000</v>
+        <v>-221.82599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>65487.799780</v>
+        <v>65487.799780000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.191055</v>
+        <v>18.191054999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.088000</v>
+        <v>-358.08800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>65499.661567</v>
+        <v>65499.661567000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.194350</v>
+        <v>18.19435</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.080000</v>
+        <v>1486.08</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.693000</v>
+        <v>-578.69299999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>65510.164353</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.197268</v>
+        <v>18.197268000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.700000</v>
+        <v>1620.7</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.308000</v>
+        <v>-826.30799999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>65521.372485</v>
@@ -3790,135 +4206,135 @@
         <v>18.200381</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.410000</v>
+        <v>1774.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1094.370000</v>
+        <v>-1094.3699999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>65533.446562</v>
+        <v>65533.446561999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.203735</v>
+        <v>18.203735000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2194.220000</v>
+        <v>2194.2199999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1738.070000</v>
+        <v>-1738.07</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>65361.602134</v>
+        <v>65361.602134000001</v>
       </c>
       <c r="B15" s="1">
         <v>18.156001</v>
       </c>
       <c r="C15" s="1">
-        <v>1143.820000</v>
+        <v>1143.82</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.231000</v>
+        <v>-261.23099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>65372.015145</v>
+        <v>65372.015144999998</v>
       </c>
       <c r="G15" s="1">
-        <v>18.158893</v>
+        <v>18.158892999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.300000</v>
+        <v>1165.3</v>
       </c>
       <c r="I15" s="1">
-        <v>-219.668000</v>
+        <v>-219.66800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>65382.522922</v>
+        <v>65382.522921999996</v>
       </c>
       <c r="L15" s="1">
-        <v>18.161812</v>
+        <v>18.161812000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.380000</v>
+        <v>1195.3800000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-152.617000</v>
+        <v>-152.61699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>65393.085728</v>
+        <v>65393.085727999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.164746</v>
+        <v>18.164746000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.230000</v>
+        <v>1203.23</v>
       </c>
       <c r="S15" s="1">
-        <v>-130.590000</v>
+        <v>-130.59</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>65403.585999</v>
+        <v>65403.585999000003</v>
       </c>
       <c r="V15" s="1">
-        <v>18.167663</v>
+        <v>18.167663000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.910000</v>
+        <v>1210.9100000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-109.269000</v>
+        <v>-109.26900000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>65414.106641</v>
+        <v>65414.106640999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.170585</v>
+        <v>18.170584999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1218.660000</v>
+        <v>1218.6600000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.838700</v>
+        <v>-91.838700000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>65424.304388</v>
+        <v>65424.304387999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.173418</v>
+        <v>18.173418000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.380000</v>
+        <v>1223.3800000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-87.266500</v>
+        <v>-87.266499999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>65434.602325</v>
@@ -3927,951 +4343,951 @@
         <v>18.176278</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.510000</v>
+        <v>1230.51</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.459700</v>
+        <v>-90.459699999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>65444.570921</v>
+        <v>65444.570920999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.179047</v>
+        <v>18.179047000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1238.570000</v>
+        <v>1238.57</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.403000</v>
+        <v>-102.40300000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>65455.286491</v>
+        <v>65455.286490999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.182024</v>
+        <v>18.182023999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.887000</v>
+        <v>-121.887</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>65466.326971</v>
+        <v>65466.326971000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>18.185091</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.457000</v>
+        <v>-139.45699999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>65477.274151</v>
+        <v>65477.274150999998</v>
       </c>
       <c r="BE15" s="1">
         <v>18.188132</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.805000</v>
+        <v>-221.80500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>65488.172240</v>
+        <v>65488.17224</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.191159</v>
+        <v>18.191158999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.131000</v>
+        <v>-358.13099999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>65500.084162</v>
+        <v>65500.084161999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.194468</v>
+        <v>18.194468000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.100000</v>
+        <v>1486.1</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.679000</v>
+        <v>-578.67899999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>65511.024416</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.197507</v>
+        <v>18.197507000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.780000</v>
+        <v>1620.78</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.312000</v>
+        <v>-826.31200000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>65521.796530</v>
+        <v>65521.79653</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.200499</v>
+        <v>18.200499000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.300000</v>
+        <v>1774.3</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1094.360000</v>
+        <v>-1094.3599999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>65533.981251</v>
+        <v>65533.981250999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.203884</v>
+        <v>18.203883999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2193.190000</v>
+        <v>2193.19</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1739.920000</v>
+        <v>-1739.92</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>65361.972827</v>
+        <v>65361.972826999998</v>
       </c>
       <c r="B16" s="1">
-        <v>18.156104</v>
+        <v>18.156103999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.910000</v>
+        <v>1143.9100000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.329000</v>
+        <v>-261.32900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>65372.395607</v>
+        <v>65372.395606999999</v>
       </c>
       <c r="G16" s="1">
-        <v>18.158999</v>
+        <v>18.158999000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.820000</v>
+        <v>1165.82</v>
       </c>
       <c r="I16" s="1">
-        <v>-220.204000</v>
+        <v>-220.20400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>65382.867610</v>
+        <v>65382.867610000001</v>
       </c>
       <c r="L16" s="1">
         <v>18.161908</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.220000</v>
+        <v>1195.22</v>
       </c>
       <c r="N16" s="1">
-        <v>-152.898000</v>
+        <v>-152.898</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>65393.433402</v>
+        <v>65393.433402000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.164843</v>
+        <v>18.164843000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.290000</v>
+        <v>1203.29</v>
       </c>
       <c r="S16" s="1">
-        <v>-130.540000</v>
+        <v>-130.54</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>65403.935883</v>
+        <v>65403.935882999998</v>
       </c>
       <c r="V16" s="1">
-        <v>18.167760</v>
+        <v>18.167760000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.030000</v>
+        <v>1211.03</v>
       </c>
       <c r="X16" s="1">
-        <v>-109.245000</v>
+        <v>-109.245</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>65414.529233</v>
+        <v>65414.529233000001</v>
       </c>
       <c r="AA16" s="1">
         <v>18.170703</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.680000</v>
+        <v>1218.68</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.830900</v>
+        <v>-91.8309</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>65424.742850</v>
+        <v>65424.742850000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.173540</v>
+        <v>18.173539999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.330000</v>
+        <v>1223.33</v>
       </c>
       <c r="AH16" s="1">
-        <v>-87.178500</v>
+        <v>-87.1785</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>65434.882974</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.176356</v>
+        <v>18.176355999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.458100</v>
+        <v>-90.458100000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>65444.929529</v>
+        <v>65444.929529000001</v>
       </c>
       <c r="AP16" s="1">
         <v>18.179147</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1238.570000</v>
+        <v>1238.57</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.417000</v>
+        <v>-102.417</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>65455.647839</v>
+        <v>65455.647838999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.182124</v>
+        <v>18.182124000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.885000</v>
+        <v>-121.88500000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>65466.680587</v>
+        <v>65466.680587000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.185189</v>
+        <v>18.185189000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.250000</v>
+        <v>1257.25</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.482000</v>
+        <v>-139.482</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>65477.997804</v>
+        <v>65477.997803999999</v>
       </c>
       <c r="BE16" s="1">
         <v>18.188333</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.220000</v>
+        <v>1298.22</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.823000</v>
+        <v>-221.82300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>65488.924669</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.191368</v>
+        <v>18.191368000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.090000</v>
+        <v>-358.09</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>65500.477982</v>
+        <v>65500.477981999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.194577</v>
+        <v>18.194576999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.060000</v>
+        <v>1486.06</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.685000</v>
+        <v>-578.68499999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>65511.456929</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.197627</v>
+        <v>18.197627000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.790000</v>
+        <v>1620.79</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.177000</v>
+        <v>-826.17700000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>65522.219617</v>
+        <v>65522.219617000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.200617</v>
+        <v>18.200617000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.300000</v>
+        <v>1774.3</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1094.310000</v>
+        <v>-1094.31</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>65534.805628</v>
+        <v>65534.805628000002</v>
       </c>
       <c r="CD16" s="1">
         <v>18.204113</v>
       </c>
       <c r="CE16" s="1">
-        <v>2194.500000</v>
+        <v>2194.5</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1741.410000</v>
+        <v>-1741.41</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>65362.317861</v>
+        <v>65362.317861000003</v>
       </c>
       <c r="B17" s="1">
-        <v>18.156199</v>
+        <v>18.156199000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.080000</v>
+        <v>1144.08</v>
       </c>
       <c r="D17" s="1">
-        <v>-261.325000</v>
+        <v>-261.32499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>65372.742279</v>
+        <v>65372.742278999998</v>
       </c>
       <c r="G17" s="1">
-        <v>18.159095</v>
+        <v>18.159095000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.640000</v>
+        <v>1165.6400000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-220.004000</v>
+        <v>-220.00399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>65383.211339</v>
+        <v>65383.211339000001</v>
       </c>
       <c r="L17" s="1">
-        <v>18.162003</v>
+        <v>18.162002999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.240000</v>
+        <v>1195.24</v>
       </c>
       <c r="N17" s="1">
-        <v>-153.030000</v>
+        <v>-153.03</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>65393.857467</v>
+        <v>65393.857467000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.164960</v>
+        <v>18.164960000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.350000</v>
+        <v>1203.3499999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-130.501000</v>
+        <v>-130.501</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>65404.356781</v>
+        <v>65404.356781000002</v>
       </c>
       <c r="V17" s="1">
-        <v>18.167877</v>
+        <v>18.167877000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.860000</v>
+        <v>1210.8599999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-109.340000</v>
+        <v>-109.34</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>65414.808512</v>
+        <v>65414.808512000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.170780</v>
+        <v>18.170780000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1218.650000</v>
+        <v>1218.6500000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.837100</v>
+        <v>-91.837100000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>65425.018130</v>
+        <v>65425.018129999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.173616</v>
+        <v>18.173615999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.320000</v>
+        <v>1223.32</v>
       </c>
       <c r="AH17" s="1">
-        <v>-87.210200</v>
+        <v>-87.2102</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>65435.232244</v>
+        <v>65435.232243999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.176453</v>
+        <v>18.176452999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.550000</v>
+        <v>1230.55</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.454600</v>
+        <v>-90.454599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>65445.293096</v>
+        <v>65445.293096000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.179248</v>
+        <v>18.179248000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1238.570000</v>
+        <v>1238.57</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.421000</v>
+        <v>-102.42100000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>65456.013633</v>
+        <v>65456.013633000002</v>
       </c>
       <c r="AU17" s="1">
         <v>18.182226</v>
       </c>
       <c r="AV17" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.901000</v>
+        <v>-121.901</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>65467.398795</v>
+        <v>65467.398795000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.185389</v>
+        <v>18.185389000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.492000</v>
+        <v>-139.49199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>65478.386700</v>
+        <v>65478.386700000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.188441</v>
+        <v>18.188441000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.817000</v>
+        <v>-221.81700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>65489.299646</v>
+        <v>65489.299645999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.191472</v>
+        <v>18.191472000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.104000</v>
+        <v>-358.10399999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>65500.897597</v>
+        <v>65500.897597000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.194694</v>
+        <v>18.194693999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.090000</v>
+        <v>1486.09</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.704000</v>
+        <v>-578.70399999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>65512.179102</v>
+        <v>65512.179102000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.197828</v>
+        <v>18.197828000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.740000</v>
+        <v>1620.74</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.129000</v>
+        <v>-826.12900000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>65522.975025</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.200826</v>
+        <v>18.200825999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.330000</v>
+        <v>1774.33</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1094.500000</v>
+        <v>-1094.5</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>65535.014416</v>
+        <v>65535.014415999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.204171</v>
+        <v>18.204170999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2195.390000</v>
+        <v>2195.39</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1739.700000</v>
+        <v>-1739.7</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>65362.660598</v>
+        <v>65362.660598000002</v>
       </c>
       <c r="B18" s="1">
         <v>18.156295</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.780000</v>
+        <v>1143.78</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.228000</v>
+        <v>-261.22800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>65373.075591</v>
+        <v>65373.075591000001</v>
       </c>
       <c r="G18" s="1">
         <v>18.159188</v>
       </c>
       <c r="H18" s="1">
-        <v>1166.510000</v>
+        <v>1166.51</v>
       </c>
       <c r="I18" s="1">
-        <v>-219.368000</v>
+        <v>-219.36799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>65383.643886</v>
+        <v>65383.643885999998</v>
       </c>
       <c r="L18" s="1">
-        <v>18.162123</v>
+        <v>18.162123000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.230000</v>
+        <v>1195.23</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.704000</v>
+        <v>-152.70400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>65394.129770</v>
+        <v>65394.12977</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.165036</v>
+        <v>18.165036000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.360000</v>
+        <v>1203.3599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-130.499000</v>
+        <v>-130.499</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>65404.634541</v>
+        <v>65404.634540999999</v>
       </c>
       <c r="V18" s="1">
-        <v>18.167954</v>
+        <v>18.167954000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.930000</v>
+        <v>1210.93</v>
       </c>
       <c r="X18" s="1">
-        <v>-109.315000</v>
+        <v>-109.315</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>65415.156671</v>
+        <v>65415.156670999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.170877</v>
+        <v>18.170877000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1218.540000</v>
+        <v>1218.54</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.912000</v>
+        <v>-91.912000000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>65425.361362</v>
+        <v>65425.361362000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.173711</v>
+        <v>18.173711000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.370000</v>
+        <v>1223.3699999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-87.205200</v>
+        <v>-87.205200000000005</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>65435.579984</v>
+        <v>65435.579984000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.176550</v>
+        <v>18.176549999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.435100</v>
+        <v>-90.435100000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>65446.021222</v>
+        <v>65446.021222000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.179450</v>
+        <v>18.179449999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1238.550000</v>
+        <v>1238.55</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.407000</v>
+        <v>-102.407</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>65456.740797</v>
+        <v>65456.740796999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.182428</v>
+        <v>18.182428000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.878000</v>
+        <v>-121.878</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>65467.756946</v>
+        <v>65467.756946000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.185488</v>
+        <v>18.185487999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.478000</v>
+        <v>-139.47800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>65478.767622</v>
+        <v>65478.767621999999</v>
       </c>
       <c r="BE18" s="1">
         <v>18.188547</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.230000</v>
+        <v>1298.23</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.818000</v>
+        <v>-221.81800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>65489.674620</v>
+        <v>65489.674619999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.191576</v>
+        <v>18.191576000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.113000</v>
+        <v>-358.113</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>65501.600430</v>
+        <v>65501.600429999999</v>
       </c>
       <c r="BO18" s="1">
         <v>18.194889</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.120000</v>
+        <v>1486.12</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.660000</v>
+        <v>-578.66</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>65512.300622</v>
+        <v>65512.300622000002</v>
       </c>
       <c r="BT18" s="1">
         <v>18.197861</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.770000</v>
+        <v>1620.77</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.098000</v>
+        <v>-826.09799999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>65523.099025</v>
+        <v>65523.099025000003</v>
       </c>
       <c r="BY18" s="1">
         <v>18.200861</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.300000</v>
+        <v>1774.3</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1094.410000</v>
+        <v>-1094.4100000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>65535.532241</v>
+        <v>65535.532241000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.204315</v>
+        <v>18.204315000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2195.310000</v>
+        <v>2195.31</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1739.870000</v>
+        <v>-1739.87</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>65363.079716</v>
       </c>
       <c r="B19" s="1">
-        <v>18.156411</v>
+        <v>18.156410999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.960000</v>
+        <v>1143.96</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.005000</v>
+        <v>-261.005</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>65373.515542</v>
+        <v>65373.515542000001</v>
       </c>
       <c r="G19" s="1">
-        <v>18.159310</v>
+        <v>18.159310000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1166.300000</v>
+        <v>1166.3</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.880000</v>
+        <v>-218.88</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>65383.924584</v>
@@ -4880,345 +5296,345 @@
         <v>18.162201</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.280000</v>
+        <v>1195.28</v>
       </c>
       <c r="N19" s="1">
-        <v>-153.100000</v>
+        <v>-153.1</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>65394.477002</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.165133</v>
+        <v>18.165133000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.350000</v>
+        <v>1203.3499999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-130.523000</v>
+        <v>-130.523</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>65404.982764</v>
       </c>
       <c r="V19" s="1">
-        <v>18.168051</v>
+        <v>18.168050999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.790000</v>
+        <v>1210.79</v>
       </c>
       <c r="X19" s="1">
-        <v>-109.199000</v>
+        <v>-109.199</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>65415.504399</v>
+        <v>65415.504398999998</v>
       </c>
       <c r="AA19" s="1">
         <v>18.170973</v>
       </c>
       <c r="AB19" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.843300</v>
+        <v>-91.843299999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>65426.039394</v>
+        <v>65426.039393999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.173900</v>
+        <v>18.1739</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.350000</v>
+        <v>1223.3499999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-87.177500</v>
+        <v>-87.177499999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>65436.278307</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.176744</v>
+        <v>18.176743999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.500000</v>
+        <v>1230.5</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.452500</v>
+        <v>-90.452500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>65446.398677</v>
+        <v>65446.398676999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.179555</v>
+        <v>18.179555000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1238.550000</v>
+        <v>1238.55</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.433000</v>
+        <v>-102.43300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>65457.132599</v>
+        <v>65457.132598999997</v>
       </c>
       <c r="AU19" s="1">
         <v>18.182537</v>
       </c>
       <c r="AV19" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.870000</v>
+        <v>-121.87</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>65468.118490</v>
+        <v>65468.118490000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.185588</v>
+        <v>18.185587999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.494000</v>
+        <v>-139.494</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>65479.439711</v>
+        <v>65479.439710999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.188733</v>
+        <v>18.188732999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.810000</v>
+        <v>-221.81</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>65490.357612</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.191766</v>
+        <v>18.191766000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.450000</v>
+        <v>1369.45</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.133000</v>
+        <v>-358.13299999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>65501.718974</v>
+        <v>65501.718974000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.194922</v>
+        <v>18.194921999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.100000</v>
+        <v>1486.1</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.655000</v>
+        <v>-578.65499999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>65512.737134</v>
+        <v>65512.737134000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.197983</v>
+        <v>18.197983000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1620.700000</v>
+        <v>1620.7</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.084000</v>
+        <v>-826.08399999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>65523.533023</v>
+        <v>65523.533023000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.200981</v>
+        <v>18.200980999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.440000</v>
+        <v>1774.44</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1094.210000</v>
+        <v>-1094.21</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>65536.084287</v>
+        <v>65536.084287000005</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.204468</v>
+        <v>18.204467999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2195.320000</v>
+        <v>2195.3200000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1740.590000</v>
+        <v>-1740.59</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>65363.358504</v>
+        <v>65363.358504000003</v>
       </c>
       <c r="B20" s="1">
         <v>18.156488</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.980000</v>
+        <v>1143.98</v>
       </c>
       <c r="D20" s="1">
-        <v>-261.070000</v>
+        <v>-261.07</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>65373.784406</v>
+        <v>65373.784405999999</v>
       </c>
       <c r="G20" s="1">
         <v>18.159385</v>
       </c>
       <c r="H20" s="1">
-        <v>1166.600000</v>
+        <v>1166.5999999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.829000</v>
+        <v>-218.82900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>65384.270296</v>
+        <v>65384.270296000002</v>
       </c>
       <c r="L20" s="1">
-        <v>18.162297</v>
+        <v>18.162296999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.430000</v>
+        <v>1195.43</v>
       </c>
       <c r="N20" s="1">
-        <v>-152.806000</v>
+        <v>-152.80600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>65394.828139</v>
+        <v>65394.828138999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.165230</v>
+        <v>18.165230000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.250000</v>
+        <v>1203.25</v>
       </c>
       <c r="S20" s="1">
-        <v>-130.585000</v>
+        <v>-130.58500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>65405.320508</v>
+        <v>65405.320507999997</v>
       </c>
       <c r="V20" s="1">
-        <v>18.168145</v>
+        <v>18.168144999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1211.010000</v>
+        <v>1211.01</v>
       </c>
       <c r="X20" s="1">
-        <v>-109.163000</v>
+        <v>-109.163</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>65416.201263</v>
+        <v>65416.201263000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.171167</v>
+        <v>18.171167000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1218.660000</v>
+        <v>1218.6600000000001</v>
       </c>
       <c r="AC20" s="1">
-        <v>-92.002600</v>
+        <v>-92.002600000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>65426.392545</v>
+        <v>65426.392545000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.173998</v>
+        <v>18.173998000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-87.192400</v>
+        <v>-87.192400000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>65436.628978</v>
+        <v>65436.628978000001</v>
       </c>
       <c r="AK20" s="1">
         <v>18.176841</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.448900</v>
+        <v>-90.448899999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>65446.757287</v>
@@ -5227,255 +5643,255 @@
         <v>18.179655</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1238.530000</v>
+        <v>1238.53</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.444000</v>
+        <v>-102.444</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>65457.498188</v>
+        <v>65457.498187999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>18.182638</v>
+        <v>18.182638000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.889000</v>
+        <v>-121.889</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>65468.789080</v>
+        <v>65468.789080000002</v>
       </c>
       <c r="AZ20" s="1">
         <v>18.185775</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.456000</v>
+        <v>-139.45599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>65479.850362</v>
+        <v>65479.850361999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.188847</v>
+        <v>18.188846999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.841000</v>
+        <v>-221.84100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>65490.801532</v>
+        <v>65490.801531999998</v>
       </c>
       <c r="BJ20" s="1">
         <v>18.191889</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.156000</v>
+        <v>-358.15600000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>65502.144048</v>
+        <v>65502.144048000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.195040</v>
+        <v>18.195039999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.070000</v>
+        <v>1486.07</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.691000</v>
+        <v>-578.69100000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>65513.163694</v>
+        <v>65513.163694000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.198101</v>
+        <v>18.198101000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1620.680000</v>
+        <v>1620.68</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.063000</v>
+        <v>-826.06299999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>65523.956607</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.201099</v>
+        <v>18.201098999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.390000</v>
+        <v>1774.39</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1094.190000</v>
+        <v>-1094.19</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>65536.613023</v>
+        <v>65536.613022999998</v>
       </c>
       <c r="CD20" s="1">
         <v>18.204615</v>
       </c>
       <c r="CE20" s="1">
-        <v>2195.540000</v>
+        <v>2195.54</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1738.500000</v>
+        <v>-1738.5</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>65363.699219</v>
+        <v>65363.699219000002</v>
       </c>
       <c r="B21" s="1">
-        <v>18.156583</v>
+        <v>18.156583000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.030000</v>
+        <v>1144.03</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.159000</v>
+        <v>-261.15899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>65374.127141</v>
+        <v>65374.127140999997</v>
       </c>
       <c r="G21" s="1">
-        <v>18.159480</v>
+        <v>18.159479999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1166.470000</v>
+        <v>1166.47</v>
       </c>
       <c r="I21" s="1">
-        <v>-219.599000</v>
+        <v>-219.59899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>65384.614059</v>
       </c>
       <c r="L21" s="1">
-        <v>18.162393</v>
+        <v>18.162393000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.870000</v>
+        <v>1194.8699999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-152.926000</v>
+        <v>-152.92599999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>65395.524521</v>
+        <v>65395.524520999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.165423</v>
+        <v>18.165423000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.220000</v>
+        <v>1203.22</v>
       </c>
       <c r="S21" s="1">
-        <v>-130.537000</v>
+        <v>-130.53700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>65406.007963</v>
+        <v>65406.007962999996</v>
       </c>
       <c r="V21" s="1">
         <v>18.168336</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.820000</v>
+        <v>1210.82</v>
       </c>
       <c r="X21" s="1">
-        <v>-109.365000</v>
+        <v>-109.36499999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>65416.552444</v>
+        <v>65416.552444000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.171265</v>
+        <v>18.171264999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1218.600000</v>
+        <v>1218.5999999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.868000</v>
+        <v>-91.867999999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>65426.734816</v>
+        <v>65426.734815999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.174093</v>
+        <v>18.174092999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.320000</v>
+        <v>1223.32</v>
       </c>
       <c r="AH21" s="1">
-        <v>-87.184500</v>
+        <v>-87.1845</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>65436.975682</v>
+        <v>65436.975681999997</v>
       </c>
       <c r="AK21" s="1">
         <v>18.176938</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.435400</v>
+        <v>-90.435400000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>65447.426884</v>
@@ -5484,1358 +5900,1358 @@
         <v>18.179841</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1238.560000</v>
+        <v>1238.56</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.435000</v>
+        <v>-102.435</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>65458.171758</v>
+        <v>65458.171757999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.182825</v>
+        <v>18.182825000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.882000</v>
+        <v>-121.88200000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>65469.231017</v>
+        <v>65469.231016999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.185898</v>
+        <v>18.185898000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.475000</v>
+        <v>-139.47499999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>65480.240713</v>
+        <v>65480.240712999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.188956</v>
+        <v>18.188956000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.803000</v>
+        <v>-221.803</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>65491.174554</v>
+        <v>65491.174553999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>18.191993</v>
       </c>
       <c r="BK21" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.122000</v>
+        <v>-358.12200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>65502.539355</v>
+        <v>65502.539355000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.195150</v>
+        <v>18.195150000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.060000</v>
+        <v>1486.06</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.723000</v>
+        <v>-578.72299999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>65513.591214</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.198220</v>
+        <v>18.198219999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.650000</v>
+        <v>1620.65</v>
       </c>
       <c r="BV21" s="1">
-        <v>-825.988000</v>
+        <v>-825.98800000000006</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>65524.380192</v>
+        <v>65524.380191999997</v>
       </c>
       <c r="BY21" s="1">
         <v>18.201217</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.350000</v>
+        <v>1774.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1094.170000</v>
+        <v>-1094.17</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>65537.129887</v>
+        <v>65537.129887000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.204758</v>
+        <v>18.204758000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>2193.630000</v>
+        <v>2193.63</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1739.110000</v>
+        <v>-1739.11</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>65364.040962</v>
+        <v>65364.040961999999</v>
       </c>
       <c r="B22" s="1">
-        <v>18.156678</v>
+        <v>18.156677999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1143.870000</v>
+        <v>1143.8699999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.095000</v>
+        <v>-261.09500000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>65374.473317</v>
+        <v>65374.473317000004</v>
       </c>
       <c r="G22" s="1">
-        <v>18.159576</v>
+        <v>18.159576000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.860000</v>
+        <v>1165.8599999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-219.933000</v>
+        <v>-219.93299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>65385.308458</v>
       </c>
       <c r="L22" s="1">
-        <v>18.162586</v>
+        <v>18.162586000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.090000</v>
+        <v>1195.0899999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-152.946000</v>
+        <v>-152.946</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>65395.874698</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.165521</v>
+        <v>18.165520999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.290000</v>
+        <v>1203.29</v>
       </c>
       <c r="S22" s="1">
-        <v>-130.475000</v>
+        <v>-130.47499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>65406.352684</v>
+        <v>65406.352683999998</v>
       </c>
       <c r="V22" s="1">
-        <v>18.168431</v>
+        <v>18.168431000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.810000</v>
+        <v>1210.81</v>
       </c>
       <c r="X22" s="1">
-        <v>-109.197000</v>
+        <v>-109.197</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>65416.899612</v>
+        <v>65416.899612000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.171361</v>
+        <v>18.171361000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.670000</v>
+        <v>1218.67</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.906200</v>
+        <v>-91.906199999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>65427.384048</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.174273</v>
+        <v>18.174272999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.360000</v>
+        <v>1223.3599999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-87.195200</v>
+        <v>-87.1952</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>65437.634369</v>
+        <v>65437.634368999999</v>
       </c>
       <c r="AK22" s="1">
         <v>18.177121</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.530000</v>
+        <v>1230.53</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.449100</v>
+        <v>-90.449100000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>65447.837076</v>
+        <v>65447.837076000003</v>
       </c>
       <c r="AP22" s="1">
         <v>18.179955</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1238.560000</v>
+        <v>1238.56</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.429000</v>
+        <v>-102.429</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>65458.627046</v>
+        <v>65458.627046000001</v>
       </c>
       <c r="AU22" s="1">
         <v>18.182952</v>
       </c>
       <c r="AV22" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.908000</v>
+        <v>-121.908</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>65469.584700</v>
+        <v>65469.584699999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.185996</v>
+        <v>18.185995999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.290000</v>
+        <v>1257.29</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.488000</v>
+        <v>-139.488</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>65480.601305</v>
+        <v>65480.601304999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.189056</v>
+        <v>18.189056000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.240000</v>
+        <v>1298.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.802000</v>
+        <v>-221.80199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>65491.550986</v>
+        <v>65491.550986000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>18.192097</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.450000</v>
+        <v>1369.45</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.119000</v>
+        <v>-358.11900000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>65502.960249</v>
+        <v>65502.960249000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.195267</v>
+        <v>18.195267000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.100000</v>
+        <v>1486.1</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.694000</v>
+        <v>-578.69399999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>65514.008348</v>
+        <v>65514.008348000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.198336</v>
+        <v>18.198336000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.680000</v>
+        <v>1620.68</v>
       </c>
       <c r="BV22" s="1">
-        <v>-825.947000</v>
+        <v>-825.947</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>65524.805758</v>
+        <v>65524.805758000002</v>
       </c>
       <c r="BY22" s="1">
         <v>18.201335</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.510000</v>
+        <v>1774.51</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1094.380000</v>
+        <v>-1094.3800000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>65537.647213</v>
+        <v>65537.647213000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.204902</v>
+        <v>18.204902000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2194.190000</v>
+        <v>2194.19</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1741.120000</v>
+        <v>-1741.12</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>65364.726433</v>
+        <v>65364.726433000003</v>
       </c>
       <c r="B23" s="1">
-        <v>18.156868</v>
+        <v>18.156867999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.730000</v>
+        <v>1143.73</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.170000</v>
+        <v>-261.17</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>65375.159781</v>
+        <v>65375.159781000002</v>
       </c>
       <c r="G23" s="1">
-        <v>18.159767</v>
+        <v>18.159766999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1166.320000</v>
+        <v>1166.32</v>
       </c>
       <c r="I23" s="1">
-        <v>-219.227000</v>
+        <v>-219.227</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>65385.650166</v>
+        <v>65385.650165999999</v>
       </c>
       <c r="L23" s="1">
-        <v>18.162681</v>
+        <v>18.162680999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.230000</v>
+        <v>1195.23</v>
       </c>
       <c r="N23" s="1">
-        <v>-153.075000</v>
+        <v>-153.07499999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>65396.223417</v>
+        <v>65396.223417000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.165618</v>
+        <v>18.165617999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.310000</v>
+        <v>1203.31</v>
       </c>
       <c r="S23" s="1">
-        <v>-130.492000</v>
+        <v>-130.49199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>65406.698923</v>
+        <v>65406.698923000004</v>
       </c>
       <c r="V23" s="1">
-        <v>18.168527</v>
+        <v>18.168527000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.960000</v>
+        <v>1210.96</v>
       </c>
       <c r="X23" s="1">
-        <v>-109.256000</v>
+        <v>-109.256</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>65417.562267</v>
+        <v>65417.562267000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.171545</v>
+        <v>18.171544999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.630000</v>
+        <v>1218.6300000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.845400</v>
+        <v>-91.845399999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>65427.762991</v>
+        <v>65427.762991000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.174379</v>
+        <v>18.174378999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.340000</v>
+        <v>1223.3399999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-87.237000</v>
+        <v>-87.236999999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>65438.021249</v>
+        <v>65438.021248999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.177228</v>
+        <v>18.177227999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.520000</v>
+        <v>1230.52</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.464400</v>
+        <v>-90.464399999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>65448.225939</v>
+        <v>65448.225939000004</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.180063</v>
+        <v>18.180063000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1238.560000</v>
+        <v>1238.56</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>65458.988630</v>
+        <v>65458.98863</v>
       </c>
       <c r="AU23" s="1">
         <v>18.183052</v>
       </c>
       <c r="AV23" s="1">
-        <v>1248.650000</v>
+        <v>1248.6500000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.906000</v>
+        <v>-121.90600000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>65469.944791</v>
+        <v>65469.944791000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.186096</v>
+        <v>18.186095999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.447000</v>
+        <v>-139.447</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>65481.032824</v>
+        <v>65481.032824000002</v>
       </c>
       <c r="BE23" s="1">
         <v>18.189176</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.270000</v>
+        <v>1298.27</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.808000</v>
+        <v>-221.80799999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>65491.982043</v>
+        <v>65491.982043000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.192217</v>
+        <v>18.192216999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.110000</v>
+        <v>-358.11</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>65503.356294</v>
+        <v>65503.356293999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.195377</v>
+        <v>18.195377000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.080000</v>
+        <v>1486.08</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.683000</v>
+        <v>-578.68299999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>65514.436893</v>
+        <v>65514.436892999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.198455</v>
+        <v>18.198454999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.670000</v>
+        <v>1620.67</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.013000</v>
+        <v>-826.01300000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>65525.221933</v>
+        <v>65525.221933000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.201451</v>
+        <v>18.201450999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.370000</v>
+        <v>1774.37</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1094.270000</v>
+        <v>-1094.27</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>65538.166028</v>
+        <v>65538.166028000007</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.205046</v>
+        <v>18.205045999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.540000</v>
+        <v>2193.54</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1740.840000</v>
+        <v>-1740.84</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>65365.068706</v>
+        <v>65365.068705999998</v>
       </c>
       <c r="B24" s="1">
-        <v>18.156964</v>
+        <v>18.156963999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1143.760000</v>
+        <v>1143.76</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.053000</v>
+        <v>-261.053</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>65375.506980</v>
+        <v>65375.506979999998</v>
       </c>
       <c r="G24" s="1">
-        <v>18.159863</v>
+        <v>18.159863000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1166.110000</v>
+        <v>1166.1099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-220.247000</v>
+        <v>-220.24700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>65385.999845</v>
+        <v>65385.999844999998</v>
       </c>
       <c r="L24" s="1">
-        <v>18.162778</v>
+        <v>18.162777999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.220000</v>
+        <v>1195.22</v>
       </c>
       <c r="N24" s="1">
-        <v>-152.741000</v>
+        <v>-152.74100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>65396.882568</v>
+        <v>65396.882568000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.165801</v>
+        <v>18.165800999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.300000</v>
+        <v>1203.3</v>
       </c>
       <c r="S24" s="1">
-        <v>-130.576000</v>
+        <v>-130.57599999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>65407.366505</v>
+        <v>65407.366504999998</v>
       </c>
       <c r="V24" s="1">
         <v>18.168713</v>
       </c>
       <c r="W24" s="1">
-        <v>1211.000000</v>
+        <v>1211</v>
       </c>
       <c r="X24" s="1">
-        <v>-109.292000</v>
+        <v>-109.292</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>65417.944226</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.171651</v>
+        <v>18.171651000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1218.670000</v>
+        <v>1218.67</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.817800</v>
+        <v>-91.817800000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>65428.106718</v>
+        <v>65428.106718000003</v>
       </c>
       <c r="AF24" s="1">
         <v>18.174474</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.410000</v>
+        <v>1223.4100000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-87.268900</v>
+        <v>-87.268900000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>65438.368944</v>
+        <v>65438.368944000002</v>
       </c>
       <c r="AK24" s="1">
         <v>18.177325</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.490000</v>
+        <v>1230.49</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.464200</v>
+        <v>-90.464200000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>65448.585540</v>
+        <v>65448.58554</v>
       </c>
       <c r="AP24" s="1">
         <v>18.180163</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1238.550000</v>
+        <v>1238.55</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.437000</v>
+        <v>-102.437</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>65459.361658</v>
+        <v>65459.361658000002</v>
       </c>
       <c r="AU24" s="1">
         <v>18.183156</v>
       </c>
       <c r="AV24" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.867000</v>
+        <v>-121.867</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>65470.372806</v>
+        <v>65470.372805999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.186215</v>
+        <v>18.186215000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.260000</v>
+        <v>1257.26</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.486000</v>
+        <v>-139.48599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>65481.324969</v>
+        <v>65481.324969000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.189257</v>
+        <v>18.189257000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.250000</v>
+        <v>1298.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.805000</v>
+        <v>-221.80500000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>65492.331193</v>
+        <v>65492.331192999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>18.192314</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.134000</v>
+        <v>-358.13400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>65503.773898</v>
+        <v>65503.773897999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.195493</v>
+        <v>18.195492999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.090000</v>
+        <v>1486.09</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.706000</v>
+        <v>-578.70600000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>65514.850060</v>
+        <v>65514.850059999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.198569</v>
+        <v>18.198568999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.640000</v>
+        <v>1620.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-825.979000</v>
+        <v>-825.97900000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>65525.670813</v>
+        <v>65525.670812999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.201575</v>
+        <v>18.201574999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.420000</v>
+        <v>1774.42</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1094.260000</v>
+        <v>-1094.26</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>65538.719532</v>
+        <v>65538.719532000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.205200</v>
+        <v>18.205200000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2193.030000</v>
+        <v>2193.0300000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1739.240000</v>
+        <v>-1739.24</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>65365.407472</v>
+        <v>65365.407471999999</v>
       </c>
       <c r="B25" s="1">
-        <v>18.157058</v>
+        <v>18.157057999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.120000</v>
+        <v>1144.1199999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.075000</v>
+        <v>-261.07499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>65376.168643</v>
+        <v>65376.168642999997</v>
       </c>
       <c r="G25" s="1">
-        <v>18.160047</v>
+        <v>18.160046999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.720000</v>
+        <v>1166.72</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.905000</v>
+        <v>-219.905</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>65386.654070</v>
+        <v>65386.654069999997</v>
       </c>
       <c r="L25" s="1">
-        <v>18.162959</v>
+        <v>18.162959000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.180000</v>
+        <v>1195.18</v>
       </c>
       <c r="N25" s="1">
-        <v>-152.843000</v>
+        <v>-152.84299999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>65397.268487</v>
+        <v>65397.268487000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.165908</v>
+        <v>18.165908000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.250000</v>
+        <v>1203.25</v>
       </c>
       <c r="S25" s="1">
-        <v>-130.612000</v>
+        <v>-130.61199999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>65407.726105</v>
+        <v>65407.726105000002</v>
       </c>
       <c r="V25" s="1">
         <v>18.168813</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.980000</v>
+        <v>1210.98</v>
       </c>
       <c r="X25" s="1">
-        <v>-109.285000</v>
+        <v>-109.285</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>65418.293403</v>
+        <v>65418.293403000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.171748</v>
+        <v>18.171748000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1218.640000</v>
+        <v>1218.6400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.753000</v>
+        <v>-91.753</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>65428.453423</v>
+        <v>65428.453422999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.174570</v>
+        <v>18.174569999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.430000</v>
+        <v>1223.43</v>
       </c>
       <c r="AH25" s="1">
-        <v>-87.191900</v>
+        <v>-87.191900000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>65438.719647</v>
+        <v>65438.719646999998</v>
       </c>
       <c r="AK25" s="1">
         <v>18.177422</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.540000</v>
+        <v>1230.54</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.453200</v>
+        <v>-90.453199999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>65449.008626</v>
+        <v>65449.008626000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.180280</v>
+        <v>18.18028</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1238.560000</v>
+        <v>1238.56</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.449000</v>
+        <v>-102.449</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>65459.847395</v>
+        <v>65459.847394999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.183291</v>
+        <v>18.183291000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.889000</v>
+        <v>-121.889</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>65470.652055</v>
+        <v>65470.652054999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.186292</v>
+        <v>18.186292000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.310000</v>
+        <v>1257.31</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.491000</v>
+        <v>-139.49100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>65481.686551</v>
+        <v>65481.686550999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.189357</v>
+        <v>18.189357000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.230000</v>
+        <v>1298.23</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.807000</v>
+        <v>-221.80699999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>65492.705176</v>
+        <v>65492.705176000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>18.192418</v>
       </c>
       <c r="BK25" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.138000</v>
+        <v>-358.13799999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>65504.173673</v>
+        <v>65504.173672999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.195604</v>
+        <v>18.195603999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.090000</v>
+        <v>1486.09</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.700000</v>
+        <v>-578.70000000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>65515.278603</v>
+        <v>65515.278602999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.198689</v>
+        <v>18.198689000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.650000</v>
+        <v>1620.65</v>
       </c>
       <c r="BV25" s="1">
-        <v>-825.934000</v>
+        <v>-825.93399999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>65526.097342</v>
+        <v>65526.097342000001</v>
       </c>
       <c r="BY25" s="1">
         <v>18.201694</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.260000</v>
+        <v>1774.26</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1094.300000</v>
+        <v>-1094.3</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>65539.247312</v>
+        <v>65539.247312000007</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.205346</v>
+        <v>18.205345999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2193.680000</v>
+        <v>2193.6799999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1740.670000</v>
+        <v>-1740.67</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>65366.061197</v>
+        <v>65366.061197000003</v>
       </c>
       <c r="B26" s="1">
-        <v>18.157239</v>
+        <v>18.157239000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.670000</v>
+        <v>1143.67</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.891000</v>
+        <v>-260.89100000000002</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>65376.537666</v>
+        <v>65376.537665999997</v>
       </c>
       <c r="G26" s="1">
-        <v>18.160149</v>
+        <v>18.160149000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.370000</v>
+        <v>1166.3699999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-219.075000</v>
+        <v>-219.07499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>65387.035988</v>
+        <v>65387.035988000003</v>
       </c>
       <c r="L26" s="1">
-        <v>18.163066</v>
+        <v>18.163066000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.170000</v>
+        <v>1195.17</v>
       </c>
       <c r="N26" s="1">
-        <v>-152.882000</v>
+        <v>-152.88200000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>65397.615654</v>
+        <v>65397.615654000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.166004</v>
+        <v>18.166004000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.250000</v>
+        <v>1203.25</v>
       </c>
       <c r="S26" s="1">
-        <v>-130.547000</v>
+        <v>-130.547</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>65408.070826</v>
+        <v>65408.070826000003</v>
       </c>
       <c r="V26" s="1">
-        <v>18.168909</v>
+        <v>18.168908999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.870000</v>
+        <v>1210.8699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-109.333000</v>
+        <v>-109.333</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>65418.639578</v>
+        <v>65418.639578000002</v>
       </c>
       <c r="AA26" s="1">
         <v>18.171844</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.710000</v>
+        <v>1218.71</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.861500</v>
+        <v>-91.861500000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>65428.871581</v>
+        <v>65428.871580999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.174687</v>
+        <v>18.174686999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.420000</v>
+        <v>1223.42</v>
       </c>
       <c r="AH26" s="1">
-        <v>-87.230700</v>
+        <v>-87.230699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>65439.133279</v>
+        <v>65439.133279000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.177537</v>
+        <v>18.177537000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.510000</v>
+        <v>1230.51</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.448900</v>
+        <v>-90.448899999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>65449.302258</v>
+        <v>65449.302258000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.180362</v>
+        <v>18.180361999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1238.550000</v>
+        <v>1238.55</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.419000</v>
+        <v>-102.419</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>65460.082803</v>
+        <v>65460.082802999998</v>
       </c>
       <c r="AU26" s="1">
         <v>18.183356</v>
       </c>
       <c r="AV26" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.885000</v>
+        <v>-121.88500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>65471.021108</v>
+        <v>65471.021108000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.186395</v>
+        <v>18.186395000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.280000</v>
+        <v>1257.28</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.465000</v>
+        <v>-139.465</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>65482.046150</v>
+        <v>65482.046150000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.189457</v>
+        <v>18.189457000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.280000</v>
+        <v>1298.28</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.813000</v>
+        <v>-221.81299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>65493.082136</v>
+        <v>65493.082135999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>18.192523</v>
+        <v>18.192523000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.146000</v>
+        <v>-358.14600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>65504.598285</v>
@@ -6844,60 +7260,61 @@
         <v>18.195722</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.080000</v>
+        <v>1486.08</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.697000</v>
+        <v>-578.697</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>65515.706651</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.198807</v>
+        <v>18.198806999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.490000</v>
+        <v>1620.49</v>
       </c>
       <c r="BV26" s="1">
-        <v>-825.868000</v>
+        <v>-825.86800000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>65526.514972</v>
+        <v>65526.514971999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.201810</v>
+        <v>18.201809999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.350000</v>
+        <v>1774.35</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1094.380000</v>
+        <v>-1094.3800000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>65539.765098</v>
+        <v>65539.765098000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.205490</v>
+        <v>18.205490000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2195.560000</v>
+        <v>2195.56</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1739.940000</v>
+        <v>-1739.94</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>